--- a/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.1814643788979655</v>
+        <v>7.1814643747594014</v>
       </c>
       <c r="C2">
-        <v>6.147826543696949</v>
+        <v>6.1478265478865808</v>
       </c>
       <c r="D2">
-        <v>6.1483215399577844</v>
+        <v>6.1483215503878945</v>
       </c>
       <c r="E2">
-        <v>4.5139780880754623</v>
+        <v>4.5139780925685207</v>
       </c>
       <c r="F2">
-        <v>4.7194555366151558</v>
+        <v>4.719455539803481</v>
       </c>
       <c r="G2">
-        <v>7.9981182053295283</v>
+        <v>7.9981182074354242</v>
       </c>
       <c r="H2">
-        <v>3.4949555934363117</v>
+        <v>3.4949555975879565</v>
       </c>
       <c r="I2">
-        <v>4.9795477785714271</v>
+        <v>4.9795477788355065</v>
       </c>
       <c r="J2">
-        <v>6.3309345839942699</v>
+        <v>6.3309345941213664</v>
       </c>
       <c r="K2">
-        <v>6.9711461040411775</v>
+        <v>6.9711461059669899</v>
       </c>
       <c r="L2">
-        <v>9.356873447923137</v>
+        <v>9.3568734519945291</v>
       </c>
       <c r="M2">
-        <v>7.5311525479849433</v>
+        <v>7.5311525471235941</v>
       </c>
       <c r="N2">
-        <v>5.5000560923104471</v>
+        <v>5.5000560945839378</v>
       </c>
       <c r="O2">
-        <v>3.4083788784199669</v>
+        <v>3.408378886346338</v>
       </c>
       <c r="P2">
-        <v>4.3868923747360933</v>
+        <v>4.3868923717963026</v>
       </c>
       <c r="Q2">
-        <v>9.0770288920933115</v>
+        <v>9.0770288962071461</v>
       </c>
       <c r="R2">
-        <v>5.7271619057988792</v>
+        <v>5.7271619107786353</v>
       </c>
       <c r="S2">
-        <v>3.3396589113819402</v>
+        <v>3.3396589105267269</v>
       </c>
       <c r="T2">
-        <v>2.4215716933176359</v>
+        <v>2.4215716906135047</v>
       </c>
       <c r="U2">
-        <v>7.0443857350725478</v>
+        <v>7.0443857410859696</v>
       </c>
       <c r="V2">
-        <v>4.9384202707224576</v>
+        <v>4.9384202749292605</v>
       </c>
       <c r="W2">
-        <v>7.2421183705391856</v>
+        <v>7.2421183805107203</v>
       </c>
       <c r="X2">
-        <v>7.5714152038335829</v>
+        <v>7.5714152097247576</v>
       </c>
       <c r="Y2">
-        <v>1.6139977499544904</v>
+        <v>1.6139977563560992</v>
       </c>
       <c r="Z2">
-        <v>4.3372931817427824</v>
+        <v>4.3372931860241613</v>
       </c>
       <c r="AA2">
-        <v>4.89377412521171</v>
+        <v>4.8937741606138054</v>
       </c>
       <c r="AB2">
-        <v>5.3098475897204693</v>
+        <v>5.3098476028242692</v>
       </c>
       <c r="AC2">
-        <v>8.4395603345557273</v>
+        <v>8.4395603457162025</v>
       </c>
       <c r="AD2">
-        <v>2.6477958776648389</v>
+        <v>2.647795892706148</v>
       </c>
       <c r="AE2">
-        <v>6.6517374999411283</v>
+        <v>6.6517375014372453</v>
       </c>
       <c r="AF2">
-        <v>4.6607063862061828</v>
+        <v>4.6607063935485202</v>
       </c>
       <c r="AG2">
-        <v>4.2207618464145975</v>
+        <v>4.2207618631012824</v>
       </c>
       <c r="AH2">
-        <v>3.2590634401184966</v>
+        <v>3.2590634465184931</v>
       </c>
       <c r="AI2">
-        <v>5.9799370738595083</v>
+        <v>5.9799370882473024</v>
       </c>
       <c r="AJ2">
-        <v>5.1479641291320926</v>
+        <v>5.1479641378139629</v>
       </c>
       <c r="AK2">
-        <v>6.0516231429843401</v>
+        <v>6.0516231480184963</v>
       </c>
       <c r="AL2">
-        <v>8.5757818579158887</v>
+        <v>8.5757818665328145</v>
       </c>
       <c r="AM2">
-        <v>3.5528427771910849</v>
+        <v>3.552842783658944</v>
       </c>
       <c r="AN2">
-        <v>4.4486712105788691</v>
+        <v>4.4486712168760487</v>
       </c>
       <c r="AO2">
-        <v>2.822845939268436</v>
+        <v>2.8228459539119366</v>
       </c>
       <c r="AP2">
-        <v>3.1606377761491418</v>
+        <v>3.1606377825638092</v>
       </c>
       <c r="AQ2">
-        <v>6.3326107161063234</v>
+        <v>6.3326107290754097</v>
       </c>
       <c r="AR2">
-        <v>2.9896583640215493</v>
+        <v>2.9896583655061297</v>
       </c>
       <c r="AS2">
-        <v>3.3914772528496244</v>
+        <v>3.3914772708302121</v>
       </c>
       <c r="AT2">
-        <v>4.9242084390907817</v>
+        <v>4.9242084466870972</v>
       </c>
       <c r="AU2">
-        <v>3.0261574428128881</v>
+        <v>3.0261574439133043</v>
       </c>
       <c r="AV2">
-        <v>4.0180572488438662</v>
+        <v>4.0180572735446445</v>
       </c>
       <c r="AW2">
-        <v>5.7658381001420054</v>
+        <v>5.7658381047460887</v>
       </c>
       <c r="AX2">
-        <v>4.1816036259493856</v>
+        <v>4.1816036368754839</v>
       </c>
       <c r="AY2">
-        <v>1.9660200960565193</v>
+        <v>1.966020103939643</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.8815973725082937</v>
+        <v>6.8815973774792472</v>
       </c>
       <c r="C3">
-        <v>6.6617536839984695</v>
+        <v>6.6617536875226424</v>
       </c>
       <c r="D3">
-        <v>3.5682684990644127</v>
+        <v>3.5682685061154564</v>
       </c>
       <c r="E3">
-        <v>3.7686303522107161</v>
+        <v>3.7686303521408138</v>
       </c>
       <c r="F3">
-        <v>5.0235567996479897</v>
+        <v>5.0235568064707667</v>
       </c>
       <c r="G3">
-        <v>4.5345676553506804</v>
+        <v>4.534567659565397</v>
       </c>
       <c r="H3">
-        <v>7.2808470225657524</v>
+        <v>7.2808470259098952</v>
       </c>
       <c r="I3">
-        <v>5.5874428455373142</v>
+        <v>5.587442847930669</v>
       </c>
       <c r="J3">
-        <v>5.0156186413378201</v>
+        <v>5.0156186522710859</v>
       </c>
       <c r="K3">
-        <v>-1.1066161565313273</v>
+        <v>-1.1066161513524335</v>
       </c>
       <c r="L3">
-        <v>4.4664840015525815</v>
+        <v>4.4664840081064607</v>
       </c>
       <c r="M3">
-        <v>7.2683421245358524</v>
+        <v>7.2683429477265955</v>
       </c>
       <c r="N3">
-        <v>4.8610006646642328</v>
+        <v>4.8610006685951728</v>
       </c>
       <c r="O3">
-        <v>7.4926963796153903</v>
+        <v>7.4926963834489264</v>
       </c>
       <c r="P3">
-        <v>4.0872212971716433</v>
+        <v>4.0872213043638785</v>
       </c>
       <c r="Q3">
-        <v>4.2000795129233692</v>
+        <v>4.2000795172705923</v>
       </c>
       <c r="R3">
-        <v>7.0835664285188811</v>
+        <v>7.0835664376194787</v>
       </c>
       <c r="S3">
-        <v>2.9262180182380826</v>
+        <v>2.9262180188839313</v>
       </c>
       <c r="T3">
-        <v>3.4847995383118446</v>
+        <v>3.4847995424473788</v>
       </c>
       <c r="U3">
-        <v>4.3330357714544938</v>
+        <v>4.3330357741059116</v>
       </c>
       <c r="V3">
-        <v>3.1200750132251578</v>
+        <v>3.1200750158411985</v>
       </c>
       <c r="W3">
-        <v>5.1359139868426311</v>
+        <v>5.1359139952110233</v>
       </c>
       <c r="X3">
-        <v>7.6127810847695514</v>
+        <v>7.6127810894249244</v>
       </c>
       <c r="Y3">
-        <v>0.9384660761348238</v>
+        <v>0.93846608504754436</v>
       </c>
       <c r="Z3">
-        <v>2.409803321738631</v>
+        <v>2.4098033257535554</v>
       </c>
       <c r="AA3">
-        <v>4.7112530568728026</v>
+        <v>4.7112530515005142</v>
       </c>
       <c r="AB3">
-        <v>4.6957767027776498</v>
+        <v>4.6957767116698417</v>
       </c>
       <c r="AC3">
-        <v>6.1532247783462442</v>
+        <v>6.1532247792170987</v>
       </c>
       <c r="AD3">
-        <v>4.613011789932111</v>
+        <v>4.6130118052973605</v>
       </c>
       <c r="AE3">
-        <v>4.4013851617849644</v>
+        <v>4.4013851663505736</v>
       </c>
       <c r="AF3">
-        <v>6.1536905796727499</v>
+        <v>6.153690587511206</v>
       </c>
       <c r="AG3">
-        <v>5.7428478014373141</v>
+        <v>5.7428478022877583</v>
       </c>
       <c r="AH3">
-        <v>6.2161520779940682</v>
+        <v>6.216152091578147</v>
       </c>
       <c r="AI3">
-        <v>0.82493204725380709</v>
+        <v>0.82493206284900322</v>
       </c>
       <c r="AJ3">
-        <v>4.5378184040765364</v>
+        <v>4.5378184109342037</v>
       </c>
       <c r="AK3">
-        <v>6.9749626797840651</v>
+        <v>6.9749626843333106</v>
       </c>
       <c r="AL3">
-        <v>4.934911475411436</v>
+        <v>4.9349114808505439</v>
       </c>
       <c r="AM3">
-        <v>3.5856213821680436</v>
+        <v>3.585621399859106</v>
       </c>
       <c r="AN3">
-        <v>9.5012729815391612</v>
+        <v>9.5012729922568919</v>
       </c>
       <c r="AO3">
-        <v>4.0108725026695531</v>
+        <v>4.0108725103559371</v>
       </c>
       <c r="AP3">
-        <v>4.8873094443418514</v>
+        <v>4.8873094538628123</v>
       </c>
       <c r="AQ3">
-        <v>3.862594965923162</v>
+        <v>3.8625949725400912</v>
       </c>
       <c r="AR3">
-        <v>2.6749382081290172</v>
+        <v>2.6749382097469629</v>
       </c>
       <c r="AS3">
-        <v>5.5856334647317638</v>
+        <v>5.5856334800656455</v>
       </c>
       <c r="AT3">
-        <v>2.8436020073574779</v>
+        <v>2.8436020229805634</v>
       </c>
       <c r="AU3">
-        <v>5.4936650072393078</v>
+        <v>5.493665015999591</v>
       </c>
       <c r="AV3">
-        <v>5.0635923966276239</v>
+        <v>5.0635924182723695</v>
       </c>
       <c r="AW3">
-        <v>7.1112513245104232</v>
+        <v>7.1112513423990551</v>
       </c>
       <c r="AX3">
-        <v>6.7862236147136903</v>
+        <v>6.7862236285128743</v>
       </c>
       <c r="AY3">
-        <v>1.1652124306972722</v>
+        <v>1.1652124333817209</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>7.1814643747594014</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>6.1478265478865808</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>6.1483215503878945</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>4.5139780925685207</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>4.719455539803481</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>7.9981182074354242</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3.4949555975879565</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>4.9795477788355065</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>6.3309345941213664</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>6.9711461059669899</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>9.3568734519945291</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>7.5311525471235941</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>5.5000560945839378</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>3.408378886346338</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>4.3868923717963026</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>9.0770288962071461</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>5.7271619107786353</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>3.3396589105267269</v>
+        <v>5.1202384425324574</v>
       </c>
       <c r="T2">
         <v>2.4215716906135047</v>
@@ -588,55 +477,55 @@
         <v>4.3372931860241613</v>
       </c>
       <c r="AA2">
-        <v>4.8937741606138054</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>5.3098476028242692</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>8.4395603457162025</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>2.647795892706148</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>6.6517375014372453</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>4.6607063935485202</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>4.2207618631012824</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>3.2590634465184931</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>5.9799370882473024</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>5.1479641378139629</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>6.0516231480184963</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>8.5757818665328145</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>3.552842783658944</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>4.4486712168760487</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>2.8228459539119366</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>3.1606377825638092</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>6.3326107290754097</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>2.9896583655061297</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>6.8815973774792472</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>6.6617536875226424</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3.5682685061154564</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3.7686303521408138</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5.0235568064707667</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>4.534567659565397</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>7.2808470259098952</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>5.587442847930669</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>5.0156186522710859</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-1.1066161513524335</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>4.4664840081064607</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>7.2683429477265955</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>4.8610006685951728</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>7.4926963834489264</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>4.0872213043638785</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>4.2000795172705923</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>7.0835664376194787</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>2.9262180188839313</v>
@@ -743,55 +629,55 @@
         <v>2.4098033257535554</v>
       </c>
       <c r="AA3">
-        <v>4.7112530515005142</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>4.6957767116698417</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>6.1532247792170987</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>4.6130118052973605</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>4.4013851663505736</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>6.153690587511206</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>5.7428478022877583</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>6.216152091578147</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.82493206284900322</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>4.5378184109342037</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>6.9749626843333106</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>4.9349114808505439</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>3.585621399859106</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>9.5012729922568919</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>4.0108725103559371</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>4.8873094538628123</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>3.8625949725400912</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>2.6749382097469629</v>

--- a/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>7.1814643788979655</v>
-      </c>
       <c r="C2">
-        <v>6.7897472766915365</v>
-      </c>
-      <c r="D2">
-        <v>6.1483215399577844</v>
-      </c>
-      <c r="E2">
-        <v>4.5139780880754623</v>
+        <v>5.7271619107786353</v>
       </c>
       <c r="F2">
         <v>4.7194555366151558</v>
@@ -673,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.8815973725082937</v>
+        <v>6.057254819772349</v>
       </c>
       <c r="C3">
-        <v>6.6617536839984695</v>
+        <v>7.0835664376194787</v>
       </c>
       <c r="D3">
-        <v>3.5682684990644127</v>
+        <v>9.1862437576153866</v>
       </c>
       <c r="E3">
-        <v>3.7686303522107161</v>
+        <v>3.644634541626997</v>
       </c>
       <c r="F3">
         <v>5.0235567996479897</v>

--- a/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.1814643788979655</v>
-      </c>
-      <c r="C2">
-        <v>6.7897472766915365</v>
+        <v>5.6988614982962673</v>
       </c>
       <c r="D2">
-        <v>6.1483215399577844</v>
-      </c>
-      <c r="E2">
-        <v>4.5139780880754623</v>
+        <v>3.552842783658944</v>
       </c>
       <c r="F2">
         <v>4.7194555366151558</v>
@@ -661,16 +650,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.8815973725082937</v>
+        <v>4.8610006685951728</v>
       </c>
       <c r="C3">
-        <v>6.6617536839984695</v>
+        <v>6.057254819772349</v>
       </c>
       <c r="D3">
-        <v>3.5682684990644127</v>
+        <v>3.585621399859106</v>
       </c>
       <c r="E3">
-        <v>2.2964440506548112</v>
+        <v>9.1862437576153866</v>
       </c>
       <c r="F3">
         <v>5.0235567996479897</v>

--- a/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,136 +513,142 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>7.1814643747594014</v>
+      </c>
+      <c r="C2">
+        <v>6.7897472805936454</v>
+      </c>
+      <c r="D2">
+        <v>6.1483215503878945</v>
+      </c>
+      <c r="E2">
+        <v>4.5139780925685207</v>
+      </c>
+      <c r="F2">
+        <v>4.719455539803481</v>
+      </c>
+      <c r="G2">
+        <v>7.050956863775375</v>
+      </c>
+      <c r="H2">
+        <v>3.4949555975879565</v>
+      </c>
+      <c r="I2">
+        <v>4.1012259809061495</v>
+      </c>
+      <c r="J2">
+        <v>6.3309345941213664</v>
+      </c>
+      <c r="K2">
+        <v>6.9711461059669899</v>
+      </c>
+      <c r="L2">
+        <v>9.0957387569230299</v>
+      </c>
+      <c r="M2">
+        <v>5.9506380821163214</v>
+      </c>
+      <c r="N2">
         <v>5.6988614982962673</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>4.0426291772376439</v>
+      </c>
+      <c r="Q2">
+        <v>9.0770288962071461</v>
+      </c>
+      <c r="R2">
+        <v>5.7271619107786353</v>
+      </c>
+      <c r="T2">
+        <v>3.1080571642114418</v>
+      </c>
+      <c r="U2">
+        <v>7.0443857410859696</v>
+      </c>
+      <c r="V2">
+        <v>4.299122484218131</v>
+      </c>
+      <c r="W2">
+        <v>7.2421183805107203</v>
+      </c>
+      <c r="X2">
+        <v>7.5714152097247576</v>
+      </c>
+      <c r="Y2">
+        <v>1.6139977563560992</v>
+      </c>
+      <c r="Z2">
+        <v>4.3372931860241613</v>
+      </c>
+      <c r="AA2">
+        <v>4.8937741606138054</v>
+      </c>
+      <c r="AB2">
+        <v>5.3098476028242692</v>
+      </c>
+      <c r="AC2">
+        <v>8.4395603457162025</v>
+      </c>
+      <c r="AD2">
+        <v>2.647795892706148</v>
+      </c>
+      <c r="AE2">
+        <v>6.6517375014372453</v>
+      </c>
+      <c r="AF2">
+        <v>4.6607063935485202</v>
+      </c>
+      <c r="AG2">
+        <v>4.2207618631012824</v>
+      </c>
+      <c r="AH2">
+        <v>3.2590634465184931</v>
+      </c>
+      <c r="AI2">
+        <v>5.9799370882473024</v>
+      </c>
+      <c r="AJ2">
+        <v>5.1479641378139629</v>
+      </c>
+      <c r="AK2">
+        <v>6.0516231480184963</v>
+      </c>
+      <c r="AL2">
+        <v>8.5757818665328145</v>
+      </c>
+      <c r="AM2">
         <v>3.552842783658944</v>
       </c>
-      <c r="F2">
-        <v>4.7194555366151558</v>
-      </c>
-      <c r="G2">
-        <v>7.0509568635672011</v>
-      </c>
-      <c r="H2">
-        <v>3.4949555934363117</v>
-      </c>
-      <c r="I2">
-        <v>4.1012259834036069</v>
-      </c>
-      <c r="J2">
-        <v>6.3309345839942699</v>
-      </c>
-      <c r="K2">
-        <v>6.9711461040411775</v>
-      </c>
-      <c r="L2">
-        <v>9.0957387499346734</v>
-      </c>
-      <c r="M2">
-        <v>5.9506380839870543</v>
-      </c>
-      <c r="N2">
-        <v>5.6988614939284652</v>
-      </c>
-      <c r="P2">
-        <v>4.0426291780442467</v>
-      </c>
-      <c r="Q2">
-        <v>9.0770288920933115</v>
-      </c>
-      <c r="R2">
-        <v>5.7271619057988792</v>
-      </c>
-      <c r="T2">
-        <v>3.108057165619297</v>
-      </c>
-      <c r="U2">
-        <v>7.0443857350725478</v>
-      </c>
-      <c r="V2">
-        <v>4.2991224776085701</v>
-      </c>
-      <c r="W2">
-        <v>7.2421183705391856</v>
-      </c>
-      <c r="X2">
-        <v>7.5714152038335829</v>
-      </c>
-      <c r="Y2">
-        <v>1.6139977499544904</v>
-      </c>
-      <c r="Z2">
-        <v>4.3372931817427824</v>
-      </c>
-      <c r="AA2">
-        <v>4.89377412521171</v>
-      </c>
-      <c r="AB2">
-        <v>5.3098475897204693</v>
-      </c>
-      <c r="AC2">
-        <v>8.4395603345557273</v>
-      </c>
-      <c r="AD2">
-        <v>2.6477958776648389</v>
-      </c>
-      <c r="AE2">
-        <v>6.6517374999411283</v>
-      </c>
-      <c r="AF2">
-        <v>4.6607063862061828</v>
-      </c>
-      <c r="AG2">
-        <v>4.2207618464145975</v>
-      </c>
-      <c r="AH2">
-        <v>3.2590634401184966</v>
-      </c>
-      <c r="AI2">
-        <v>5.9799370738595083</v>
-      </c>
-      <c r="AJ2">
-        <v>5.1479641291320926</v>
-      </c>
-      <c r="AK2">
-        <v>6.0516231429843401</v>
-      </c>
-      <c r="AL2">
-        <v>8.5757818579158887</v>
-      </c>
-      <c r="AM2">
-        <v>3.5528427771910849</v>
-      </c>
       <c r="AO2">
-        <v>2.822845939268436</v>
+        <v>2.8228459539119366</v>
       </c>
       <c r="AP2">
-        <v>2.7140855546504095</v>
+        <v>2.7140855599240439</v>
       </c>
       <c r="AR2">
-        <v>2.9896583640215493</v>
+        <v>2.9896583655061297</v>
       </c>
       <c r="AS2">
-        <v>3.3914772528496244</v>
+        <v>3.3914772708302121</v>
       </c>
       <c r="AT2">
-        <v>4.9242084390907817</v>
+        <v>4.9242084466870972</v>
       </c>
       <c r="AU2">
-        <v>4.2648503830011428</v>
+        <v>4.2648503810662461</v>
       </c>
       <c r="AV2">
-        <v>4.0180572488438662</v>
+        <v>4.0180572735446445</v>
       </c>
       <c r="AW2">
-        <v>5.7658381001420054</v>
+        <v>5.7658381047460887</v>
       </c>
       <c r="AX2">
-        <v>4.1816036259493856</v>
+        <v>4.1816036368754839</v>
       </c>
       <c r="AY2">
-        <v>1.9660200960565193</v>
+        <v>1.966020103939643</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -650,154 +656,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>6.8815973774792472</v>
+      </c>
+      <c r="C3">
+        <v>6.6617536875226424</v>
+      </c>
+      <c r="D3">
+        <v>3.5682685061154564</v>
+      </c>
+      <c r="E3">
+        <v>2.2964440505164405</v>
+      </c>
+      <c r="F3">
+        <v>5.0235568064707667</v>
+      </c>
+      <c r="G3">
+        <v>4.534567659565397</v>
+      </c>
+      <c r="H3">
+        <v>7.2808470259098952</v>
+      </c>
+      <c r="I3">
+        <v>5.587442847930669</v>
+      </c>
+      <c r="J3">
+        <v>5.0156186522710859</v>
+      </c>
+      <c r="K3">
+        <v>-0.30315192778049077</v>
+      </c>
+      <c r="L3">
+        <v>4.4664840081064607</v>
+      </c>
+      <c r="M3">
+        <v>8.2355039622080604</v>
+      </c>
+      <c r="N3">
         <v>4.8610006685951728</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>6.057254819772349</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>4.0872213043638785</v>
+      </c>
+      <c r="Q3">
+        <v>4.2000795172705923</v>
+      </c>
+      <c r="R3">
+        <v>7.0835664376194787</v>
+      </c>
+      <c r="S3">
+        <v>2.9262180188839313</v>
+      </c>
+      <c r="T3">
+        <v>3.4847995424473788</v>
+      </c>
+      <c r="U3">
+        <v>4.3330357741059116</v>
+      </c>
+      <c r="V3">
+        <v>2.7515016860538175</v>
+      </c>
+      <c r="W3">
+        <v>5.1359139952110233</v>
+      </c>
+      <c r="X3">
+        <v>7.6127810894249244</v>
+      </c>
+      <c r="Y3">
+        <v>0.93846608504754436</v>
+      </c>
+      <c r="Z3">
+        <v>2.4098033257535554</v>
+      </c>
+      <c r="AA3">
+        <v>4.7112530515005142</v>
+      </c>
+      <c r="AB3">
+        <v>4.6957767116698417</v>
+      </c>
+      <c r="AC3">
+        <v>6.1532247792170987</v>
+      </c>
+      <c r="AD3">
+        <v>4.6130118052973605</v>
+      </c>
+      <c r="AE3">
+        <v>4.4013851663505736</v>
+      </c>
+      <c r="AF3">
+        <v>6.153690587511206</v>
+      </c>
+      <c r="AG3">
+        <v>5.7428478022877583</v>
+      </c>
+      <c r="AH3">
+        <v>6.216152091578147</v>
+      </c>
+      <c r="AI3">
+        <v>6.4425764570231951</v>
+      </c>
+      <c r="AJ3">
+        <v>4.5378184109342037</v>
+      </c>
+      <c r="AK3">
+        <v>6.9749626843333106</v>
+      </c>
+      <c r="AL3">
+        <v>4.9349114808505439</v>
+      </c>
+      <c r="AM3">
         <v>3.585621399859106</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>9.1862437576153866</v>
       </c>
-      <c r="F3">
-        <v>5.0235567996479897</v>
-      </c>
-      <c r="G3">
-        <v>4.5345676553506804</v>
-      </c>
-      <c r="H3">
-        <v>7.2808470225657524</v>
-      </c>
-      <c r="I3">
-        <v>5.5874428455373142</v>
-      </c>
-      <c r="J3">
-        <v>5.0156186413378201</v>
-      </c>
-      <c r="K3">
-        <v>-0.30315193457400091</v>
-      </c>
-      <c r="L3">
-        <v>4.4664840015525815</v>
-      </c>
-      <c r="M3">
-        <v>8.2354964009980876</v>
-      </c>
-      <c r="N3">
-        <v>4.8610006646642328</v>
-      </c>
-      <c r="O3">
-        <v>6.0572548128031212</v>
-      </c>
-      <c r="P3">
-        <v>4.0872212971716433</v>
-      </c>
-      <c r="Q3">
-        <v>4.2000795129233692</v>
-      </c>
-      <c r="R3">
-        <v>7.0835664285188811</v>
-      </c>
-      <c r="S3">
-        <v>2.9262180182380826</v>
-      </c>
-      <c r="T3">
-        <v>3.4847995383118446</v>
-      </c>
-      <c r="U3">
-        <v>4.3330357714544938</v>
-      </c>
-      <c r="V3">
-        <v>2.7515016846858202</v>
-      </c>
-      <c r="W3">
-        <v>5.1359139868426311</v>
-      </c>
-      <c r="X3">
-        <v>7.6127810847695514</v>
-      </c>
-      <c r="Y3">
-        <v>0.9384660761348238</v>
-      </c>
-      <c r="Z3">
-        <v>2.409803321738631</v>
-      </c>
-      <c r="AA3">
-        <v>4.7112530568728026</v>
-      </c>
-      <c r="AB3">
-        <v>4.6957767027776498</v>
-      </c>
-      <c r="AC3">
-        <v>6.1532247783462442</v>
-      </c>
-      <c r="AD3">
-        <v>4.613011789932111</v>
-      </c>
-      <c r="AE3">
-        <v>4.4013851617849644</v>
-      </c>
-      <c r="AF3">
-        <v>6.1536905796727499</v>
-      </c>
-      <c r="AG3">
-        <v>5.7428478014373141</v>
-      </c>
-      <c r="AH3">
-        <v>6.2161520779940682</v>
-      </c>
-      <c r="AI3">
-        <v>6.4425764391484011</v>
-      </c>
-      <c r="AJ3">
-        <v>4.5378184040765364</v>
-      </c>
-      <c r="AK3">
-        <v>6.9749626797840651</v>
-      </c>
-      <c r="AL3">
-        <v>4.934911475411436</v>
-      </c>
-      <c r="AM3">
-        <v>3.5856213821680436</v>
-      </c>
-      <c r="AN3">
-        <v>9.1862437446410059</v>
-      </c>
       <c r="AO3">
-        <v>4.0108725026695531</v>
+        <v>4.0108725103559371</v>
       </c>
       <c r="AP3">
-        <v>4.8873094443418514</v>
+        <v>4.8873094538628123</v>
       </c>
       <c r="AQ3">
-        <v>3.6446345398463573</v>
+        <v>3.644634541626997</v>
       </c>
       <c r="AR3">
-        <v>2.6749382081290172</v>
+        <v>2.6749382097469629</v>
       </c>
       <c r="AS3">
-        <v>5.5856334647317638</v>
+        <v>5.5856334800656455</v>
       </c>
       <c r="AT3">
-        <v>2.8436020073574779</v>
+        <v>2.8436020229805634</v>
       </c>
       <c r="AU3">
-        <v>5.1818450474448108</v>
+        <v>5.181845050112206</v>
       </c>
       <c r="AV3">
-        <v>5.0635923966276239</v>
+        <v>5.0635924182723695</v>
       </c>
       <c r="AW3">
-        <v>7.1112513245104232</v>
+        <v>7.1112513423990551</v>
       </c>
       <c r="AX3">
-        <v>6.7862236147136903</v>
+        <v>6.7862236285128743</v>
       </c>
       <c r="AY3">
-        <v>1.1652124306972722</v>
+        <v>1.1652124333817209</v>
       </c>
     </row>
   </sheetData>
